--- a/ru/downloads/data-excel/16.2.1.xlsx
+++ b/ru/downloads/data-excel/16.2.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
   <si>
     <t>Баткенская область</t>
   </si>
@@ -121,9 +121,6 @@
     <t>(in percents)</t>
   </si>
   <si>
-    <t>by territory</t>
-  </si>
-  <si>
     <t>16.2.1 Доля детей в возрасте от 1 года до 14 лет, в последний месяц подвергшихся любому физическому наказанию и/или психологической агрессии со стороны тех, кто обеспечивает уход за ними</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Сельская</t>
   </si>
   <si>
-    <t>Возраст (в годах)</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>Percentage of children aged 1-14 years who are subjected to any violent method of discipline</t>
   </si>
   <si>
-    <t>by sex</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>Rural</t>
   </si>
   <si>
-    <t>Age (in years)</t>
-  </si>
-  <si>
     <t>Functional dificulties in a child (age: 2-14 years)</t>
   </si>
   <si>
@@ -247,9 +235,6 @@
     <t>No information</t>
   </si>
   <si>
-    <t>wealth quintile</t>
-  </si>
-  <si>
     <t>poorest</t>
   </si>
   <si>
@@ -322,9 +307,6 @@
     <t>Жынысы боюнча</t>
   </si>
   <si>
-    <t>Жаш курагы (жылдарда)</t>
-  </si>
-  <si>
     <t>Баланын функционалдык кыйынчылыктары (жашы: 2-14 жаш)</t>
   </si>
   <si>
@@ -332,6 +314,27 @@
   </si>
   <si>
     <t>Жетиштүү жашоо индексинин квинтили</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>By sex</t>
+  </si>
+  <si>
+    <t>By territory</t>
+  </si>
+  <si>
+    <t>By age (in years)</t>
+  </si>
+  <si>
+    <t>Wealth quintile</t>
+  </si>
+  <si>
+    <t>По возрасту (в годах)</t>
+  </si>
+  <si>
+    <t>Жаш курагы боюнча (жылдарда)</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,6 +671,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -996,7 +1002,9 @@
   </sheetPr>
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1005,13 +1013,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="64.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="13"/>
     </row>
@@ -1054,13 +1062,13 @@
     </row>
     <row r="5" spans="1:6" ht="36">
       <c r="A5" s="35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="15">
         <v>57.1</v>
@@ -1071,26 +1079,26 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="10">
         <v>59.9</v>
@@ -1101,13 +1109,13 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" s="10">
         <v>54.4</v>
@@ -1118,26 +1126,26 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="38" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="10">
         <v>60</v>
@@ -1148,13 +1156,13 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10">
         <v>56</v>
@@ -1165,13 +1173,13 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1331,13 +1339,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1361,13 +1369,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="10">
         <v>67.099999999999994</v>
@@ -1378,13 +1386,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="10">
         <v>61.9</v>
@@ -1410,129 +1418,139 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>61</v>
+    <row r="27" spans="1:5" ht="24">
+      <c r="A27" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E28" s="10">
         <v>83.7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E29" s="10">
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>62</v>
+    <row r="30" spans="1:5" ht="36">
+      <c r="A30" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E31" s="10">
         <v>92.4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E32" s="10">
         <v>74.400000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="E33" s="10">
         <v>69.8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D35" s="10">
         <v>55.1</v>
@@ -1543,13 +1561,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10">
         <v>58.1</v>
@@ -1560,13 +1578,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D37" s="10">
         <v>54.7</v>
@@ -1577,13 +1595,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D38" s="10">
         <v>56.5</v>
@@ -1594,13 +1612,13 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D39" s="23">
         <v>62.5</v>
@@ -1611,25 +1629,25 @@
     </row>
     <row r="40" spans="1:5" ht="22.5">
       <c r="A40" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="C40" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="22.5">
       <c r="A41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:5">
